--- a/Practice1-2/flowchart.xlsx
+++ b/Practice1-2/flowchart.xlsx
@@ -1517,7 +1517,7 @@
   <dimension ref="C6:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
